--- a/dev/inventory_bread.xlsx
+++ b/dev/inventory_bread.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B92A91-6327-9A47-8EEB-36F6D7D30D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27460" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="27465" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="58">
   <si>
     <t>technosphere</t>
   </si>
@@ -194,14 +193,29 @@
   </si>
   <si>
     <t>market for clay brick</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>biosphere3</t>
+  </si>
+  <si>
+    <t>biosphere</t>
+  </si>
+  <si>
+    <t>air::unspecified</t>
+  </si>
+  <si>
+    <t>Nitrogen oxides</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -255,7 +269,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,21 +583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -591,7 +605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -599,12 +613,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -612,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -620,7 +634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -628,7 +642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -636,12 +650,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -649,12 +663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -683,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -706,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -730,7 +744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -754,7 +768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -778,7 +792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -802,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -826,7 +840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -850,7 +864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -874,7 +888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -898,223 +912,215 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>6</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>10</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H34" t="s">
         <v>9</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B36" s="5">
         <f>0.4/0.7</f>
         <v>0.57142857142857151</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B37" s="5">
         <f>0.012/0.7</f>
         <v>1.7142857142857144E-2</v>
       </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" s="5">
-        <f>0.006/0.7</f>
-        <v>8.5714285714285719E-3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <f>0.3/0.7</f>
-        <v>0.4285714285714286</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>37</v>
       </c>
       <c r="B38" s="5">
         <f>0.006/0.7</f>
@@ -1124,635 +1130,763 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5">
+        <f>0.3/0.7</f>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5">
+        <f>0.006/0.7</f>
+        <v>8.5714285714285719E-3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B41" s="5">
         <f>0.01/0.45</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B42" s="5">
         <f>3*(46/60)</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>20</v>
       </c>
-      <c r="G40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B43" s="1">
         <f>1/821250</f>
         <v>1.2176560121765601E-6</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>25</v>
       </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>6</v>
       </c>
-      <c r="G41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>6</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>14</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" t="s">
         <v>13</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G56" t="s">
         <v>10</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H56" t="s">
         <v>9</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>25</v>
       </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B58" s="5">
         <f>0.3*1/0.45</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B59" s="5">
         <f>0.003/0.45</f>
         <v>6.6666666666666662E-3</v>
       </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
         <v>23</v>
       </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B60" s="5">
         <f>0.18/0.45</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
         <v>3</v>
       </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B61" s="5">
         <f>0.015/0.45</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B62" s="5">
         <f>0.018/0.45</f>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B63" s="5">
         <f>0.099/0.45</f>
         <v>0.22</v>
       </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B64" s="5">
         <f>3*(40/60)</f>
         <v>2</v>
       </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
         <v>20</v>
       </c>
-      <c r="G60" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B65" s="1">
         <f>1/821250</f>
         <v>1.2176560121765601E-6</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>6</v>
       </c>
-      <c r="G61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>15</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B78" t="s">
         <v>14</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C78" t="s">
         <v>13</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D78" t="s">
         <v>12</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E78" t="s">
         <v>6</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G78" t="s">
         <v>10</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H78" t="s">
         <v>9</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="5">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>25</v>
       </c>
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
         <v>6</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G79" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B80" s="5">
         <v>250</v>
       </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
         <v>23</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E80" t="s">
         <v>24</v>
       </c>
-      <c r="G74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G80" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B81" s="5">
         <v>2000</v>
       </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
         <v>46</v>
       </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B82" s="5">
         <v>400</v>
       </c>
-      <c r="C76" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B83" s="5">
         <v>2000</v>
       </c>
-      <c r="C77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
         <v>20</v>
       </c>
-      <c r="G77" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B84" s="5">
         <v>500</v>
       </c>
-      <c r="C78" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
         <v>4</v>
       </c>
-      <c r="E78" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" t="s">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev/inventory_bread.xlsx
+++ b/dev/inventory_bread.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDB06D2-AF97-1040-B8CC-1B11E37F28C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="27465" windowHeight="15900"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27460" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -204,16 +205,16 @@
     <t>biosphere</t>
   </si>
   <si>
-    <t>air::unspecified</t>
-  </si>
-  <si>
     <t>Nitrogen oxides</t>
+  </si>
+  <si>
+    <t>air</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -583,21 +584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -605,7 +606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -613,12 +614,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -626,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -634,7 +635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -642,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -650,12 +651,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -663,12 +664,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -697,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -720,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -744,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -768,7 +769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -792,7 +793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -816,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -840,7 +841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -864,7 +865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -888,7 +889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -912,7 +913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -926,15 +927,15 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>2.0000000000000001E-4</v>
@@ -946,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -963,12 +964,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -976,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -984,7 +985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -992,7 +993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1000,12 +1001,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1013,12 +1014,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1276,15 +1277,15 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1">
         <v>2.0000000000000001E-4</v>
@@ -1296,16 +1297,16 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -1313,12 +1314,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1350,12 +1351,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1363,12 +1364,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -1626,15 +1627,15 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1">
         <v>2.0000000000000001E-4</v>
@@ -1646,13 +1647,13 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>19</v>
       </c>
@@ -1660,12 +1661,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1697,12 +1698,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -1710,12 +1711,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>41</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -1882,10 +1883,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
     </row>
   </sheetData>

--- a/dev/inventory_bread.xlsx
+++ b/dev/inventory_bread.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDB06D2-AF97-1040-B8CC-1B11E37F28C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC18C84-BDAA-2648-8E86-3AB3403B59D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27460" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -924,7 +924,7 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
@@ -1274,7 +1274,7 @@
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
         <v>57</v>
@@ -1624,7 +1624,7 @@
         <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
         <v>57</v>

--- a/dev/inventory_bread.xlsx
+++ b/dev/inventory_bread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC18C84-BDAA-2648-8E86-3AB3403B59D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DD9FB7-2886-ED44-976C-4F5483BDE4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27460" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,8 +215,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -262,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,6 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1101,7 @@
       <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <f>0.012/0.7</f>
         <v>1.7142857142857144E-2</v>
       </c>
